--- a/tables/table1.xlsx
+++ b/tables/table1.xlsx
@@ -96,10 +96,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -387,7 +387,7 @@
   <dimension ref="B1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -429,9 +429,9 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
@@ -440,7 +440,7 @@
       <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>25</v>
       </c>
       <c r="E5" s="2">
@@ -454,7 +454,7 @@
       <c r="C6" s="2">
         <v>4</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="2">
         <v>6</v>
       </c>
@@ -463,11 +463,11 @@
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3">
         <v>2</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>3</v>
       </c>
       <c r="F7" s="1"/>
@@ -475,7 +475,7 @@
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>9</v>
       </c>
       <c r="D8" s="5">
@@ -486,41 +486,44 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>2</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>4</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>5</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C12" s="4"/>
-      <c r="D12" s="4">
-        <f>SUBTOTAL(1,C5:C8)</f>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="E12" s="4"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3">
+        <f>SUBTOTAL(1,C5:C9)</f>
+        <v>3.75</v>
+      </c>
+      <c r="E12" s="3">
+        <f>SUBTOTAL(4,E9:E11)</f>
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
